--- a/configs/__beans__.xlsx
+++ b/configs/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12900"/>
+    <workbookView windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -71,37 +71,52 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Lang</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.4"/>
+      <color rgb="FFE3116C"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +124,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -117,14 +132,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +147,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -140,7 +155,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -148,7 +163,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +171,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -164,14 +179,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -179,7 +194,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +202,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -195,14 +210,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -210,28 +225,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -556,203 +571,206 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1024,16 +1042,16 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="20.6285714285714" customWidth="1"/>
-    <col min="5" max="6" width="12.247619047619" customWidth="1"/>
+    <col min="2" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="13.5047619047619" customWidth="1"/>
-    <col min="12" max="12" width="10.3809523809524" customWidth="1"/>
+    <col min="10" max="11" width="13.5083333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1064,13 +1082,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1115,77 +1133,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2"/>
+    <row r="4" ht="15" spans="2:13">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="10:13">
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
